--- a/configPoints.xlsx
+++ b/configPoints.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73439AE-AF48-450E-A635-EF42559F5957}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE7ABD8-EA43-4A3D-A15C-F9C88F5CB386}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="497">
   <si>
     <t>Номер помещения</t>
   </si>
@@ -1484,6 +1484,54 @@
   </si>
   <si>
     <t>334D</t>
+  </si>
+  <si>
+    <t>PKR</t>
+  </si>
+  <si>
+    <t>exitP</t>
+  </si>
+  <si>
+    <t>AnP</t>
+  </si>
+  <si>
+    <t>List Shafls</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>53D</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>56D</t>
+  </si>
+  <si>
+    <t>55D</t>
+  </si>
+  <si>
+    <t>2.14.1</t>
+  </si>
+  <si>
+    <t>58D</t>
+  </si>
+  <si>
+    <t>57D</t>
+  </si>
+  <si>
+    <t>54D</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>140D</t>
   </si>
 </sst>
 </file>
@@ -2027,7 +2075,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:D24"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2375,11 +2423,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99587236-7E1B-4FF4-9D1D-9EFAAE802114}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:D18"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2528,13 +2576,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>374</v>
+        <v>486</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>375</v>
+        <v>487</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -2542,13 +2590,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>374</v>
+        <v>488</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>376</v>
+        <v>489</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
@@ -2556,13 +2604,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>377</v>
+        <v>488</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>378</v>
+        <v>490</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -2570,13 +2618,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>377</v>
+        <v>491</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>379</v>
+        <v>492</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
@@ -2584,48 +2632,132 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>380</v>
+        <v>491</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>381</v>
+        <v>493</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
+        <v>214</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>215</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>216</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>217</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>218</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>222</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>233</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="12"/>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2644,7 +2776,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:D18"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2915,7 +3047,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:D33"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4147,7 +4279,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4375,6 +4507,20 @@
         <v>480</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>514</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4594,11 +4740,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87333CA0-39BE-4E21-97E2-7A7B7331CECB}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:D36"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4648,56 +4794,56 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>100</v>
+      <c r="A5" s="12">
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>481</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>101</v>
+      <c r="A6" s="12">
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>482</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>102</v>
+      <c r="A7" s="12">
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>483</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>103</v>
+      <c r="A8" s="12">
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>484</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>485</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -4705,13 +4851,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
@@ -4719,13 +4865,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
@@ -4733,13 +4879,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
@@ -4747,13 +4893,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -4761,13 +4907,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
@@ -4775,13 +4921,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
@@ -4789,13 +4935,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
@@ -4803,13 +4949,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
@@ -4817,13 +4963,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
@@ -4831,13 +4977,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
@@ -4845,13 +4991,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
@@ -4859,13 +5005,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
@@ -4873,13 +5019,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>26</v>
@@ -4887,13 +5033,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>26</v>
@@ -4901,13 +5047,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>26</v>
@@ -4915,13 +5061,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
@@ -4929,13 +5075,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>26</v>
@@ -4943,13 +5089,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>26</v>
@@ -4957,13 +5103,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>26</v>
@@ -4971,13 +5117,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>26</v>
@@ -4985,13 +5131,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>26</v>
@@ -4999,13 +5145,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>26</v>
@@ -5013,13 +5159,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>26</v>
@@ -5027,13 +5173,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>26</v>
@@ -5041,13 +5187,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>26</v>
@@ -5055,13 +5201,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>26</v>
@@ -5069,13 +5215,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>26</v>
@@ -5083,21 +5229,77 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
+        <v>128</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>129</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>130</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>131</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
         <v>132</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:D36">
-    <sortCondition ref="A5"/>
+  <sortState ref="A9:D40">
+    <sortCondition ref="A9"/>
   </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{ED561688-7D7A-4D49-9280-148E5D6726B9}">
@@ -5114,7 +5316,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -6261,7 +6463,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:D23"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6942,7 +7144,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:D24"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/configPoints.xlsx
+++ b/configPoints.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE7ABD8-EA43-4A3D-A15C-F9C88F5CB386}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3629CCC0-A1E9-43FA-A7AE-7CB5420590B2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DESCRIPTION" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="494">
   <si>
     <t>Номер помещения</t>
   </si>
@@ -391,9 +391,6 @@
     <t>Out Doors</t>
   </si>
   <si>
-    <t>Lift shafl</t>
-  </si>
-  <si>
     <t>Fire hydrant</t>
   </si>
   <si>
@@ -436,9 +433,6 @@
     <t>28</t>
   </si>
   <si>
-    <t>30 A30 45 65 68</t>
-  </si>
-  <si>
     <t>0.91</t>
   </si>
   <si>
@@ -1033,9 +1027,6 @@
     <t>2.30</t>
   </si>
   <si>
-    <t>2.26</t>
-  </si>
-  <si>
     <t>2.15</t>
   </si>
   <si>
@@ -1429,9 +1420,6 @@
     <t>2D A2D 3D A3D</t>
   </si>
   <si>
-    <t>3D A3D</t>
-  </si>
-  <si>
     <t>4.06</t>
   </si>
   <si>
@@ -1532,6 +1520,9 @@
   </si>
   <si>
     <t>140D</t>
+  </si>
+  <si>
+    <t>Step</t>
   </si>
 </sst>
 </file>
@@ -2071,11 +2062,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C710A5A-C793-4706-8CC9-D17911316245}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2086,7 +2077,7 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -2094,7 +2085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -2102,7 +2093,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2110,7 +2101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -2123,176 +2114,215 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>274</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>275</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>276</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>277</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>278</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>279</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>280</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>281</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>282</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>283</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>284</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>285</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="12">
         <v>286</v>
       </c>
@@ -2303,10 +2333,13 @@
         <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="12">
         <v>287</v>
       </c>
@@ -2317,10 +2350,13 @@
         <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>288</v>
       </c>
@@ -2328,13 +2364,16 @@
         <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>289</v>
       </c>
@@ -2342,69 +2381,84 @@
         <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>290</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>291</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>292</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>293</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="12"/>
     </row>
   </sheetData>
@@ -2412,22 +2466,22 @@
     <sortCondition ref="A5"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{F52527BF-7981-4519-9DAF-67235EAF6472}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E24" xr:uid="{F52527BF-7981-4519-9DAF-67235EAF6472}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99587236-7E1B-4FF4-9D1D-9EFAAE802114}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2438,15 +2492,15 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -2454,15 +2508,15 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -2475,308 +2529,371 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>209</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>211</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>213</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>214</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>216</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>218</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>222</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>233</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{A2ED3173-2BF2-4C0E-AE03-F1152A0F3257}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E24" xr:uid="{A2ED3173-2BF2-4C0E-AE03-F1152A0F3257}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0156EEAB-F65D-4BA0-B1FC-916741F3C454}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2787,15 +2904,15 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -2803,15 +2920,15 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -2824,207 +2941,252 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="12">
         <v>219</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>220</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>221</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>223</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>224</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>225</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>226</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="12">
         <v>227</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>228</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>229</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>230</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>231</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>232</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="12"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="12"/>
     </row>
   </sheetData>
@@ -3032,22 +3194,22 @@
     <sortCondition ref="A5"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{219E410B-BD3E-49B9-8B40-29D566593E36}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E18" xr:uid="{219E410B-BD3E-49B9-8B40-29D566593E36}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2777F51E-085D-4F3F-8220-14D10029BCBF}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3058,15 +3220,15 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -3074,15 +3236,15 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -3095,69 +3257,84 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>301</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>302</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>303</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>304</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>305</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>88</v>
@@ -3165,55 +3342,67 @@
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>306</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>307</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>308</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>309</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>70</v>
@@ -3221,13 +3410,16 @@
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>310</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>76</v>
@@ -3235,55 +3427,67 @@
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="12">
         <v>311</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>312</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>313</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>314</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>79</v>
@@ -3291,13 +3495,16 @@
       <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>315</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>81</v>
@@ -3305,13 +3512,16 @@
       <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>316</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>77</v>
@@ -3319,27 +3529,33 @@
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="12">
         <v>317</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>318</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>114</v>
@@ -3347,13 +3563,16 @@
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>319</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>92</v>
@@ -3361,168 +3580,167 @@
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>320</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="12">
         <v>321</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>322</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>323</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>333</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>324</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>118</v>
+        <v>427</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>272</v>
+        <v>429</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>431</v>
+        <v>353</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>430</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>335</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>344</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:D33">
+  <sortState ref="A5:D31">
     <sortCondition ref="A5"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{2F4A5BB2-2EE1-4A0C-B42A-8A8685577552}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E31" xr:uid="{2F4A5BB2-2EE1-4A0C-B42A-8A8685577552}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834BA53-A863-4FAD-B460-266310887914}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:D12"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3533,15 +3751,15 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -3549,15 +3767,15 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -3570,27 +3788,33 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>336</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>337</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>57</v>
@@ -3598,13 +3822,16 @@
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>338</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>58</v>
@@ -3612,78 +3839,96 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>339</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>340</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>341</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>342</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>343</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="12"/>
     </row>
     <row r="21" spans="1:1">
@@ -3697,22 +3942,22 @@
     <sortCondition ref="A5"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{546BA064-1E87-4288-BCA1-893EA4BF221E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E12" xr:uid="{546BA064-1E87-4288-BCA1-893EA4BF221E}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43CC718-7121-4D1A-AF69-F2EB65F783EB}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:D11"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3723,15 +3968,15 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -3739,15 +3984,15 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -3760,27 +4005,33 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>326</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>327</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -3788,78 +4039,96 @@
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>328</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>329</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>330</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>331</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>332</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="12"/>
     </row>
     <row r="21" spans="1:1">
@@ -3873,22 +4142,22 @@
     <sortCondition ref="A5"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{D9AF7930-A561-4442-A1C8-89E69EA52DAD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E11" xr:uid="{D9AF7930-A561-4442-A1C8-89E69EA52DAD}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF27F1CB-3D99-4594-A8B6-1C9B00F1D141}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:D27"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3899,15 +4168,15 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -3915,15 +4184,15 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -3936,13 +4205,16 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>401</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>63</v>
@@ -3950,27 +4222,33 @@
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>402</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>403</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>70</v>
@@ -3978,41 +4256,50 @@
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>404</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>405</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>406</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>76</v>
@@ -4020,55 +4307,67 @@
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>407</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>408</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>409</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>410</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>98</v>
@@ -4076,13 +4375,16 @@
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="12">
         <v>411</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>77</v>
@@ -4090,13 +4392,16 @@
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>412</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>100</v>
@@ -4104,27 +4409,33 @@
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>413</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>414</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>114</v>
@@ -4132,41 +4443,50 @@
       <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="12">
-        <v>415</v>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>417</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>117</v>
+        <v>454</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>272</v>
+        <v>455</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>118</v>
+        <v>456</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>272</v>
+        <v>457</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>457</v>
+        <v>312</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>458</v>
@@ -4174,112 +4494,65 @@
       <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>459</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>460</v>
+        <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>314</v>
+        <v>451</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>461</v>
+        <v>301</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>420</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="12">
-        <v>421</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>422</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>423</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:D27">
+  <sortState ref="A5:D23">
     <sortCondition ref="A5"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{6E8A4FB0-D02E-454A-8F7B-4447C47A6A3F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E23" xr:uid="{6E8A4FB0-D02E-454A-8F7B-4447C47A6A3F}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F232EB7-FDD6-4758-AB3E-D8C2748D81BB}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4290,15 +4563,15 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -4306,15 +4579,15 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -4327,207 +4600,252 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>501</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>502</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>503</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>504</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>505</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>506</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>507</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>508</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>509</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>510</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>511</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="12">
         <v>512</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>513</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>514</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="12"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="12"/>
     </row>
   </sheetData>
@@ -4535,12 +4853,12 @@
     <sortCondition ref="A5"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{5E6BD057-F310-4CEF-B525-014B26480767}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E18" xr:uid="{5E6BD057-F310-4CEF-B525-014B26480767}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4632,11 +4950,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4647,7 +4965,7 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -4655,7 +4973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -4663,7 +4981,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -4671,7 +4989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -4684,8 +5002,11 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4698,8 +5019,11 @@
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4712,8 +5036,11 @@
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4726,25 +5053,28 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{223F74B7-0392-4C46-9D64-7C685346A9DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E7" xr:uid="{223F74B7-0392-4C46-9D64-7C685346A9DB}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87333CA0-39BE-4E21-97E2-7A7B7331CECB}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4755,7 +5085,7 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -4763,7 +5093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -4771,7 +5101,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -4779,7 +5109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -4792,36 +5122,45 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="12">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -4829,27 +5168,33 @@
         <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="12">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>100</v>
       </c>
@@ -4862,8 +5207,11 @@
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>101</v>
       </c>
@@ -4876,8 +5224,11 @@
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>102</v>
       </c>
@@ -4890,8 +5241,11 @@
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>103</v>
       </c>
@@ -4904,8 +5258,11 @@
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>104</v>
       </c>
@@ -4918,8 +5275,11 @@
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>105</v>
       </c>
@@ -4932,8 +5292,11 @@
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>106</v>
       </c>
@@ -4946,8 +5309,11 @@
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>107</v>
       </c>
@@ -4960,8 +5326,11 @@
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>108</v>
       </c>
@@ -4974,8 +5343,11 @@
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>109</v>
       </c>
@@ -4988,8 +5360,11 @@
       <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>110</v>
       </c>
@@ -5002,8 +5377,11 @@
       <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>111</v>
       </c>
@@ -5016,8 +5394,11 @@
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>113</v>
       </c>
@@ -5030,8 +5411,11 @@
       <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>114</v>
       </c>
@@ -5044,8 +5428,11 @@
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>115</v>
       </c>
@@ -5058,8 +5445,11 @@
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>116</v>
       </c>
@@ -5072,8 +5462,11 @@
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>117</v>
       </c>
@@ -5086,8 +5479,11 @@
       <c r="D25" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>118</v>
       </c>
@@ -5100,8 +5496,11 @@
       <c r="D26" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>119</v>
       </c>
@@ -5114,8 +5513,11 @@
       <c r="D27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>120</v>
       </c>
@@ -5128,8 +5530,11 @@
       <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>121</v>
       </c>
@@ -5142,8 +5547,11 @@
       <c r="D29" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>122</v>
       </c>
@@ -5156,8 +5564,11 @@
       <c r="D30" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>123</v>
       </c>
@@ -5170,8 +5581,11 @@
       <c r="D31" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>124</v>
       </c>
@@ -5184,8 +5598,11 @@
       <c r="D32" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>125</v>
       </c>
@@ -5198,8 +5615,11 @@
       <c r="D33" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>126</v>
       </c>
@@ -5212,8 +5632,11 @@
       <c r="D34" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>127</v>
       </c>
@@ -5226,8 +5649,11 @@
       <c r="D35" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>128</v>
       </c>
@@ -5240,84 +5666,31 @@
       <c r="D36" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>129</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>130</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>131</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>132</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A9:D40">
+  <sortState ref="A9:D36">
     <sortCondition ref="A9"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{ED561688-7D7A-4D49-9280-148E5D6726B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E36" xr:uid="{ED561688-7D7A-4D49-9280-148E5D6726B9}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E76851-78EE-459F-B30A-445404278BFF}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5328,15 +5701,15 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -5344,15 +5717,15 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -5365,111 +5738,135 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>131</v>
@@ -5477,27 +5874,33 @@
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>159</v>
@@ -5505,248 +5908,302 @@
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>37</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>38</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>40</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>41</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>42</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>43</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>45</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>46</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>47</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>49</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>50</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>55</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>53</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>54</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="D31" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>177</v>
@@ -5757,178 +6214,217 @@
       <c r="D32" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>58</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>57</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D34" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>60</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>59</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>61</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>62</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>63</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>60</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>64</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>61</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>62</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>63</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="D40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>65</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>64</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="D41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>67</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>68</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <v>65</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>67</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="D43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>69</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
-        <v>68</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="D44" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>191</v>
@@ -5939,10 +6435,13 @@
       <c r="D45" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>193</v>
@@ -5953,10 +6452,13 @@
       <c r="D46" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>195</v>
@@ -5967,10 +6469,13 @@
       <c r="D47" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>197</v>
@@ -5981,10 +6486,13 @@
       <c r="D48" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>199</v>
@@ -5995,24 +6503,30 @@
       <c r="D49" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>204</v>
@@ -6023,10 +6537,13 @@
       <c r="D51" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>206</v>
@@ -6037,55 +6554,50 @@
       <c r="D52" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="D54" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1">
-        <v>171</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:D55">
+  <sortState ref="A5:D54">
     <sortCondition ref="A5"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{13D721A0-813A-41A0-8C5E-062B0B5E78B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E54" xr:uid="{13D721A0-813A-41A0-8C5E-062B0B5E78B4}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
@@ -6096,11 +6608,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCFA90B-2EAD-488C-9571-B7D4BF07806B}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6111,15 +6623,15 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -6127,15 +6639,15 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -6148,298 +6660,364 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>88</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>92</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>93</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>94</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>95</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>96</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>97</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6448,22 +7026,22 @@
     <sortCondition ref="A5"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{2D03C4B8-DB48-4561-A626-8F0248B479B7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E25" xr:uid="{2D03C4B8-DB48-4561-A626-8F0248B479B7}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F009337-4AB3-4E3F-9EC9-9C14447D700E}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6474,15 +7052,15 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -6490,15 +7068,15 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -6511,291 +7089,300 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
+        <v>175</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>176</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>177</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>178</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>177</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>178</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>179</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>180</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>179</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>181</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>180</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>181</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>182</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>182</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>183</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>184</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>183</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>184</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>185</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>185</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>186</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>187</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>188</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>186</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>189</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>187</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>188</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>189</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>190</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>190</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>192</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>193</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>194</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>175</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>27</v>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{62A97313-B18E-4D55-BF31-653C12850466}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E20" xr:uid="{62A97313-B18E-4D55-BF31-653C12850466}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE119B9-0280-4414-8591-38806C64F5AE}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6806,15 +7393,15 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -6822,15 +7409,15 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -6843,27 +7430,33 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>151</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>98</v>
@@ -6871,13 +7464,16 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>152</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>77</v>
@@ -6885,13 +7481,16 @@
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>153</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>100</v>
@@ -6899,27 +7498,33 @@
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>154</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>155</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>108</v>
@@ -6927,153 +7532,186 @@
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>156</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>157</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>158</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>159</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>160</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>161</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>162</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>163</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>164</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>165</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>166</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>57</v>
@@ -7081,13 +7719,16 @@
       <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>167</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>58</v>
@@ -7095,32 +7736,41 @@
       <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>168</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>169</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7129,22 +7779,22 @@
     <sortCondition ref="A5"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{6DB866DF-6EA1-4817-8A52-DBF5704FE261}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E24" xr:uid="{6DB866DF-6EA1-4817-8A52-DBF5704FE261}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1386ADDB-8B41-479B-8360-24D6254CD3BF}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7155,7 +7805,7 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -7163,7 +7813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -7171,7 +7821,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -7179,7 +7829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
@@ -7192,13 +7842,16 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>250</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>70</v>
@@ -7206,27 +7859,33 @@
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>251</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>252</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>86</v>
@@ -7234,27 +7893,33 @@
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>253</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>254</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>81</v>
@@ -7262,13 +7927,16 @@
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>255</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>98</v>
@@ -7276,213 +7944,241 @@
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>258</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>257</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>259</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>258</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>336</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>262</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>263</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>334</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>264</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>323</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>273</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:D32">
+  <sortState ref="A5:D31">
     <sortCondition ref="A5"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{CE38D225-BE73-427E-BBB3-45143B0E97E2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E23" xr:uid="{CE38D225-BE73-427E-BBB3-45143B0E97E2}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/configPoints.xlsx
+++ b/configPoints.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3629CCC0-A1E9-43FA-A7AE-7CB5420590B2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC77B3AB-FF3E-4138-B87A-D40B9512FADF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DESCRIPTION" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="493">
   <si>
     <t>Номер помещения</t>
   </si>
@@ -1084,12 +1084,6 @@
     <t>2.18.2</t>
   </si>
   <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
     <t>2.19.1</t>
   </si>
   <si>
@@ -1522,7 +1516,10 @@
     <t>140D</t>
   </si>
   <si>
-    <t>Step</t>
+    <t>Fade Time</t>
+  </si>
+  <si>
+    <t>Controller Register:</t>
   </si>
 </sst>
 </file>
@@ -2062,11 +2059,435 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C710A5A-C793-4706-8CC9-D17911316245}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21:E24"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>274</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>275</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>276</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>277</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>278</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>279</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>280</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>281</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>282</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>283</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>284</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>285</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="12">
+        <v>286</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="12">
+        <v>287</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>288</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>289</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>290</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>291</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>292</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>293</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="12"/>
+    </row>
+  </sheetData>
+  <sortState ref="A6:D31">
+    <sortCondition ref="A6"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{F52527BF-7981-4519-9DAF-67235EAF6472}">
+      <formula1>диммирование</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99587236-7E1B-4FF4-9D1D-9EFAAE802114}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2082,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2098,375 +2519,380 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>274</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>276</v>
+        <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>341</v>
+        <v>192</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>277</v>
+        <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>342</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>345</v>
+        <v>121</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>349</v>
+        <v>480</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>350</v>
+        <v>481</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
+      <c r="E13" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>349</v>
+        <v>482</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>352</v>
+        <v>483</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
+      <c r="E14" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>284</v>
+        <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>351</v>
+        <v>482</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>353</v>
+        <v>484</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
+      <c r="E15" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>351</v>
+        <v>485</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>354</v>
+        <v>486</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
+      <c r="E16" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12">
-        <v>286</v>
+      <c r="A17" s="1">
+        <v>212</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>485</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>487</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="E17" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12">
-        <v>287</v>
+      <c r="A18" s="1">
+        <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>369</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>370</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="E18" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>288</v>
+        <v>214</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>369</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="E19" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>372</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="E20" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>27</v>
+      <c r="E21" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>357</v>
+        <v>480</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>360</v>
+        <v>488</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>27</v>
+      <c r="E24" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12"/>
+      <c r="A25" s="1">
+        <v>233</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A5:D30">
-    <sortCondition ref="A5"/>
-  </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E24" xr:uid="{F52527BF-7981-4519-9DAF-67235EAF6472}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{A2ED3173-2BF2-4C0E-AE03-F1152A0F3257}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
@@ -2475,13 +2901,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99587236-7E1B-4FF4-9D1D-9EFAAE802114}">
-  <dimension ref="A1:E27"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0156EEAB-F65D-4BA0-B1FC-916741F3C454}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2497,7 +2923,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2517,368 +2943,280 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>201</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>192</v>
+        <v>333</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
+      <c r="E6" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>203</v>
+      <c r="A7" s="12">
+        <v>219</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>379</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
+      <c r="E7" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>160</v>
+        <v>382</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
+      <c r="E8" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>381</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
+      <c r="E9" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E11" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>482</v>
+        <v>387</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
+      <c r="E12" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>484</v>
+        <v>387</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>485</v>
+        <v>389</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
+      <c r="E13" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>210</v>
+      <c r="A14" s="12">
+        <v>227</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>484</v>
+        <v>390</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>486</v>
+        <v>391</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
+      <c r="E14" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>487</v>
+        <v>390</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>488</v>
+        <v>392</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
+      <c r="E15" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>489</v>
+        <v>394</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
+      <c r="E16" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
+      <c r="E17" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>27</v>
+      <c r="E18" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>27</v>
+      <c r="E19" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>216</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>217</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>218</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>222</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A20" s="12"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>233</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="12"/>
+      <c r="A24" s="12"/>
     </row>
   </sheetData>
+  <sortState ref="A6:D19">
+    <sortCondition ref="A6"/>
+  </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E24" xr:uid="{A2ED3173-2BF2-4C0E-AE03-F1152A0F3257}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{219E410B-BD3E-49B9-8B40-29D566593E36}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
@@ -2887,13 +3225,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0156EEAB-F65D-4BA0-B1FC-916741F3C454}">
-  <dimension ref="A1:E23"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2777F51E-085D-4F3F-8220-14D10029BCBF}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2909,7 +3247,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2925,276 +3263,499 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>200</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="12">
-        <v>219</v>
+      <c r="A6" s="1">
+        <v>301</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
+      <c r="E6" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
+      <c r="E7" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>383</v>
+        <v>303</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
+      <c r="E8" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>224</v>
+        <v>305</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>388</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>390</v>
+        <v>309</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>391</v>
+        <v>311</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="12">
-        <v>227</v>
+      <c r="A13" s="1">
+        <v>308</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>393</v>
+        <v>310</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>228</v>
+        <v>309</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>394</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>229</v>
+        <v>310</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>396</v>
+        <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>230</v>
+      <c r="A16" s="12">
+        <v>311</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>397</v>
+        <v>284</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>399</v>
+        <v>173</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12"/>
+      <c r="A19" s="1">
+        <v>314</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>315</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>316</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="12">
+        <v>317</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12"/>
+      <c r="A23" s="1">
+        <v>318</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>319</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>320</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="12">
+        <v>321</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>322</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>323</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>333</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>334</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>335</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>344</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A5:D18">
-    <sortCondition ref="A5"/>
+  <sortState ref="A6:D32">
+    <sortCondition ref="A6"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E18" xr:uid="{219E410B-BD3E-49B9-8B40-29D566593E36}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{2F4A5BB2-2EE1-4A0C-B42A-8A8685577552}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
@@ -3203,13 +3764,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2777F51E-085D-4F3F-8220-14D10029BCBF}">
-  <dimension ref="A1:E31"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834BA53-A863-4FAD-B460-266310887914}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28:E30"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3225,7 +3786,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3245,487 +3806,181 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>301</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>303</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>307</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>319</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E9" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E11" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E12" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>357</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>310</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="12">
-        <v>311</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E13" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>312</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>313</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>314</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>315</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>316</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12">
-        <v>317</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>318</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>319</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>320</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="12">
-        <v>321</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>322</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>323</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>333</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>334</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>335</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>344</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A16" s="12"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="12"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A5:D31">
-    <sortCondition ref="A5"/>
+  <sortState ref="A6:D13">
+    <sortCondition ref="A6"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E31" xr:uid="{2F4A5BB2-2EE1-4A0C-B42A-8A8685577552}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{546BA064-1E87-4288-BCA1-893EA4BF221E}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
@@ -3734,13 +3989,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834BA53-A863-4FAD-B460-266310887914}">
-  <dimension ref="A1:E25"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43CC718-7121-4D1A-AF69-F2EB65F783EB}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3756,7 +4011,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3776,173 +4031,164 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>336</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>424</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
+      <c r="E6" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
+      <c r="E7" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>319</v>
+        <v>435</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
+      <c r="E8" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>434</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
+      <c r="E9" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
+      <c r="E10" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
+      <c r="E11" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>359</v>
+        <v>436</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="12"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="12"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="12"/>
+      <c r="E12" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="12"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A5:D12">
-    <sortCondition ref="A5"/>
+  <sortState ref="A6:D12">
+    <sortCondition ref="A6"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E12" xr:uid="{546BA064-1E87-4288-BCA1-893EA4BF221E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{D9AF7930-A561-4442-A1C8-89E69EA52DAD}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
@@ -3951,13 +4197,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43CC718-7121-4D1A-AF69-F2EB65F783EB}">
-  <dimension ref="A1:E25"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF27F1CB-3D99-4594-A8B6-1C9B00F1D141}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3973,7 +4219,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3989,160 +4235,363 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>326</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>328</v>
+        <v>402</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>335</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>330</v>
+        <v>404</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>331</v>
+        <v>405</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>332</v>
+        <v>406</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>407</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>408</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>409</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>410</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12">
+        <v>411</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>412</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>413</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="12"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="12"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="12"/>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>414</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>417</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>418</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>419</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>422</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>423</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A5:D11">
-    <sortCondition ref="A5"/>
+  <sortState ref="A6:D24">
+    <sortCondition ref="A6"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E11" xr:uid="{D9AF7930-A561-4442-A1C8-89E69EA52DAD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{6E8A4FB0-D02E-454A-8F7B-4447C47A6A3F}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
@@ -4151,13 +4600,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF27F1CB-3D99-4594-A8B6-1C9B00F1D141}">
-  <dimension ref="A1:E23"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F232EB7-FDD6-4758-AB3E-D8C2748D81BB}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4173,7 +4622,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4189,671 +4638,284 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>401</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>402</v>
+        <v>501</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>402</v>
+        <v>270</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>403</v>
+        <v>502</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>460</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>404</v>
+        <v>503</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>279</v>
+        <v>461</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>405</v>
+        <v>504</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E9" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>406</v>
+        <v>505</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>407</v>
+        <v>506</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>284</v>
+        <v>464</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E11" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>408</v>
+        <v>507</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>286</v>
+        <v>465</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E12" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>409</v>
+        <v>508</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E13" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>410</v>
+        <v>509</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>467</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E14" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="12">
-        <v>411</v>
+      <c r="A15" s="1">
+        <v>510</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E15" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>412</v>
+        <v>511</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E16" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>413</v>
+      <c r="A17" s="12">
+        <v>512</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E17" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>414</v>
+        <v>513</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>114</v>
+        <v>474</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E18" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>417</v>
+        <v>514</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>27</v>
+      <c r="E19" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>418</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>419</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>422</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>423</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A20" s="12"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A5:D23">
-    <sortCondition ref="A5"/>
+  <sortState ref="A6:D18">
+    <sortCondition ref="A6"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E23" xr:uid="{6E8A4FB0-D02E-454A-8F7B-4447C47A6A3F}">
-      <formula1>диммирование</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F232EB7-FDD6-4758-AB3E-D8C2748D81BB}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="12">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>501</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>502</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>503</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>504</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>505</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>506</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>507</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>508</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>509</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>510</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>511</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="12">
-        <v>512</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>513</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>514</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="12"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="12"/>
-    </row>
-  </sheetData>
-  <sortState ref="A5:D17">
-    <sortCondition ref="A5"/>
-  </sortState>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E18" xr:uid="{5E6BD057-F310-4CEF-B525-014B26480767}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{5E6BD057-F310-4CEF-B525-014B26480767}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
@@ -4952,9 +5014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5003,7 +5065,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5019,8 +5081,8 @@
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
+      <c r="E5" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5036,8 +5098,8 @@
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
+      <c r="E6" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5053,13 +5115,13 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
+      <c r="E7" s="9">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E7" xr:uid="{223F74B7-0392-4C46-9D64-7C685346A9DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{223F74B7-0392-4C46-9D64-7C685346A9DB}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
@@ -5070,11 +5132,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87333CA0-39BE-4E21-97E2-7A7B7331CECB}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5110,572 +5172,580 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
+      <c r="E6" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
+      <c r="E7" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>100</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>478</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>479</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
+      <c r="E9" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
+      <c r="E10" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
+      <c r="E11" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
+      <c r="E12" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
+      <c r="E13" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
+      <c r="E14" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
+      <c r="E15" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
+      <c r="E16" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
+      <c r="E17" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
+      <c r="E18" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
+      <c r="E19" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
+      <c r="E20" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>26</v>
+      <c r="E21" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>26</v>
+      <c r="E22" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>26</v>
+      <c r="E23" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>26</v>
+      <c r="E24" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>26</v>
+      <c r="E25" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>26</v>
+      <c r="E26" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>26</v>
+      <c r="E27" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>26</v>
+      <c r="E28" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>26</v>
+      <c r="E29" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>26</v>
+      <c r="E30" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>26</v>
+      <c r="E32" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>26</v>
+      <c r="E33" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>26</v>
+      <c r="E34" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>26</v>
+      <c r="E35" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
+        <v>127</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
         <v>128</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>26</v>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A9:D36">
-    <sortCondition ref="A9"/>
+  <sortState ref="A10:D37">
+    <sortCondition ref="A10"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E36" xr:uid="{ED561688-7D7A-4D49-9280-148E5D6726B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{ED561688-7D7A-4D49-9280-148E5D6726B9}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
@@ -5686,11 +5756,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E76851-78EE-459F-B30A-445404278BFF}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5726,878 +5796,886 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
+      <c r="E6" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
+      <c r="E7" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
+      <c r="E8" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
+      <c r="E9" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
+      <c r="E10" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
+      <c r="E11" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
+      <c r="E12" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
+      <c r="E13" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
+      <c r="E14" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
+      <c r="E15" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
+      <c r="E16" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
+      <c r="E17" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
+      <c r="E18" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
+      <c r="E19" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
+      <c r="E20" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>26</v>
+      <c r="E21" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>26</v>
+      <c r="E22" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>26</v>
+      <c r="E23" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>26</v>
+      <c r="E24" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>26</v>
+      <c r="E25" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>26</v>
+      <c r="E26" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>26</v>
+      <c r="E27" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>26</v>
+      <c r="E28" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>26</v>
+      <c r="E29" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>26</v>
+      <c r="E30" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>26</v>
+      <c r="E32" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>26</v>
+      <c r="E33" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>26</v>
+      <c r="E34" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>26</v>
+      <c r="E35" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>26</v>
+      <c r="E36" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>26</v>
+      <c r="E37" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>26</v>
+      <c r="E38" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>26</v>
+      <c r="E39" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>26</v>
+      <c r="E40" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>26</v>
+      <c r="E41" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>26</v>
+      <c r="E42" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>26</v>
+      <c r="E43" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>26</v>
+      <c r="E44" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>26</v>
+      <c r="E45" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>26</v>
+      <c r="E46" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>26</v>
+      <c r="E47" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>26</v>
+      <c r="E48" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>26</v>
+      <c r="E49" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>26</v>
+      <c r="E50" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>26</v>
+      <c r="E51" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>26</v>
+      <c r="E52" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>171</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>27</v>
+      <c r="D55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="9">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:D54">
-    <sortCondition ref="A5"/>
+  <sortState ref="A6:D55">
+    <sortCondition ref="A6"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E54" xr:uid="{13D721A0-813A-41A0-8C5E-062B0B5E78B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{13D721A0-813A-41A0-8C5E-062B0B5E78B4}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
@@ -6608,11 +6686,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCFA90B-2EAD-488C-9571-B7D4BF07806B}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6648,385 +6726,393 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>75</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
+      <c r="E6" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
+      <c r="E7" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
+      <c r="E8" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
+      <c r="E9" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
+      <c r="E10" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
+      <c r="E11" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
+      <c r="E13" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E14" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
+      <c r="E15" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
+      <c r="E16" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
+      <c r="E17" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
+      <c r="E18" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
+      <c r="E19" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
+      <c r="E20" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>26</v>
+      <c r="E21" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>26</v>
+      <c r="E22" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>26</v>
+      <c r="E23" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>26</v>
+      <c r="E24" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
+        <v>97</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
         <v>99</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>27</v>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="9">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:D25">
-    <sortCondition ref="A5"/>
+  <sortState ref="A6:D26">
+    <sortCondition ref="A6"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E25" xr:uid="{2D03C4B8-DB48-4561-A626-8F0248B479B7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{2D03C4B8-DB48-4561-A626-8F0248B479B7}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
@@ -7037,11 +7123,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F009337-4AB3-4E3F-9EC9-9C14447D700E}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7077,297 +7163,305 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>175</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>272</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
+      <c r="E7" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>275</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
+      <c r="E8" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
+      <c r="E9" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
+      <c r="E10" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
+      <c r="E11" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
+      <c r="E12" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
+      <c r="E13" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
+      <c r="E14" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
+      <c r="E15" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>285</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
+      <c r="E16" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>285</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
+      <c r="E17" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
+      <c r="E18" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>290</v>
+        <v>137</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
+      <c r="E19" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
+        <v>189</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
         <v>190</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E20" xr:uid="{62A97313-B18E-4D55-BF31-653C12850466}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{62A97313-B18E-4D55-BF31-653C12850466}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
@@ -7378,11 +7472,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE119B9-0280-4414-8591-38806C64F5AE}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7418,368 +7512,376 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>270</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
+      <c r="E6" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
+      <c r="E7" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
+      <c r="E8" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>298</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
+      <c r="E9" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
+      <c r="E10" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>301</v>
+        <v>108</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
+      <c r="E11" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
+      <c r="E12" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
+      <c r="E13" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
+      <c r="E14" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
+      <c r="E15" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
+      <c r="E16" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
+      <c r="E17" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>316</v>
+        <v>224</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
+      <c r="E18" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
+      <c r="E19" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
+      <c r="E20" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>315</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>318</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>27</v>
+      <c r="E22" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>318</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>319</v>
+        <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>27</v>
+      <c r="E23" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>318</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>169</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>27</v>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:D24">
-    <sortCondition ref="A5"/>
+  <sortState ref="A6:D25">
+    <sortCondition ref="A6"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E24" xr:uid="{6DB866DF-6EA1-4817-8A52-DBF5704FE261}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{6DB866DF-6EA1-4817-8A52-DBF5704FE261}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
@@ -7790,11 +7892,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1386ADDB-8B41-479B-8360-24D6254CD3BF}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14:E23"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7830,351 +7932,359 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>250</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
+      <c r="E6" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>279</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
+      <c r="E7" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>286</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
+      <c r="E8" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
+      <c r="E9" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
+      <c r="E10" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>329</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
+      <c r="E11" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
+      <c r="E12" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
+      <c r="E13" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>333</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
+      <c r="E15" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>334</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
+      <c r="E16" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
+      <c r="E17" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>27</v>
+      <c r="E18" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>27</v>
+      <c r="E19" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>325</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>321</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>27</v>
+      <c r="E20" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>27</v>
+      <c r="E21" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>27</v>
+      <c r="E22" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>273</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>27</v>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:D31">
-    <sortCondition ref="A5"/>
+  <sortState ref="A6:D32">
+    <sortCondition ref="A6"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 E5:E23" xr:uid="{CE38D225-BE73-427E-BBB3-45143B0E97E2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{CE38D225-BE73-427E-BBB3-45143B0E97E2}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>

--- a/configPoints.xlsx
+++ b/configPoints.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC77B3AB-FF3E-4138-B87A-D40B9512FADF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C657FF-B72D-47B5-92A5-686143408A58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DESCRIPTION" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="495">
   <si>
     <t>Номер помещения</t>
   </si>
@@ -1520,6 +1520,12 @@
   </si>
   <si>
     <t>Controller Register:</t>
+  </si>
+  <si>
+    <t>Sun Time</t>
+  </si>
+  <si>
+    <t>outdoor</t>
   </si>
 </sst>
 </file>
@@ -2487,7 +2493,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5134,7 +5140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87333CA0-39BE-4E21-97E2-7A7B7331CECB}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -7123,11 +7129,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F009337-4AB3-4E3F-9EC9-9C14447D700E}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7188,48 +7194,48 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>175</v>
+      <c r="A6" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>285</v>
+        <v>493</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>321</v>
+        <v>494</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>272</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -7240,13 +7246,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>275</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
@@ -7257,13 +7263,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
@@ -7274,13 +7280,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
@@ -7291,13 +7297,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -7308,13 +7314,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
@@ -7325,13 +7331,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
@@ -7342,13 +7348,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
@@ -7359,13 +7365,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
@@ -7376,13 +7382,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>285</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
@@ -7393,13 +7399,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>285</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
@@ -7410,13 +7416,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
@@ -7427,13 +7433,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>290</v>
+        <v>137</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
@@ -7444,18 +7450,35 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
+        <v>189</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
         <v>190</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="9">
         <v>0</v>
       </c>
     </row>

--- a/configPoints.xlsx
+++ b/configPoints.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C657FF-B72D-47B5-92A5-686143408A58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220215D3-A7D9-4B3E-9E48-3E8EFD300E15}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2493,7 +2493,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5138,11 +5138,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87333CA0-39BE-4E21-97E2-7A7B7331CECB}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5271,14 +5271,14 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>100</v>
+      <c r="A10" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>493</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>494</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
@@ -5289,13 +5289,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
@@ -5306,13 +5306,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -5323,13 +5323,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
@@ -5340,13 +5340,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
@@ -5357,13 +5357,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
@@ -5374,13 +5374,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
@@ -5391,13 +5391,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
@@ -5408,13 +5408,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
@@ -5425,13 +5425,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
@@ -5442,13 +5442,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
@@ -5459,13 +5459,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>26</v>
@@ -5476,13 +5476,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>26</v>
@@ -5493,13 +5493,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>26</v>
@@ -5510,13 +5510,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
@@ -5527,13 +5527,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>26</v>
@@ -5544,13 +5544,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>26</v>
@@ -5561,13 +5561,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>26</v>
@@ -5578,13 +5578,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>26</v>
@@ -5595,13 +5595,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>26</v>
@@ -5612,13 +5612,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>26</v>
@@ -5629,13 +5629,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>26</v>
@@ -5646,13 +5646,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>26</v>
@@ -5663,13 +5663,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>26</v>
@@ -5680,13 +5680,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>26</v>
@@ -5697,13 +5697,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>26</v>
@@ -5714,13 +5714,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>26</v>
@@ -5731,24 +5731,41 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
+        <v>127</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
         <v>128</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="9">
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A10:D37">
-    <sortCondition ref="A10"/>
+  <sortState ref="A11:D38">
+    <sortCondition ref="A11"/>
   </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{ED561688-7D7A-4D49-9280-148E5D6726B9}">
@@ -7129,11 +7146,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F009337-4AB3-4E3F-9EC9-9C14447D700E}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7194,48 +7211,48 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>79</v>
+      <c r="A6" s="1">
+        <v>175</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>493</v>
+        <v>285</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>494</v>
+        <v>321</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>272</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -7246,13 +7263,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
@@ -7263,13 +7280,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
@@ -7280,13 +7297,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
@@ -7297,13 +7314,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -7314,13 +7331,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
@@ -7331,13 +7348,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
@@ -7348,13 +7365,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
@@ -7365,13 +7382,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
@@ -7382,13 +7399,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>285</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
@@ -7399,13 +7416,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>285</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
@@ -7416,13 +7433,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
@@ -7433,13 +7450,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>137</v>
+        <v>290</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
@@ -7450,35 +7467,18 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>190</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="9">
         <v>0</v>
       </c>
     </row>
@@ -7499,7 +7499,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7919,7 +7919,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
